--- a/backend/node/data/saved.xlsx
+++ b/backend/node/data/saved.xlsx
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>none</v>
       </c>
       <c r="D5" t="str">
         <v/>
